--- a/cupde/videosite/docs/字数统计.xlsx
+++ b/cupde/videosite/docs/字数统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\learning-platform\cupde\videosite\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AB52C2-843C-4E67-8FD6-CEFE0D1133DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504B90AB-9AFD-414D-BA92-8FD7D1187D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9168" yWindow="2088" windowWidth="13008" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>第1章绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,14 @@
   </si>
   <si>
     <t>总字数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,16 +247,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -529,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -554,16 +561,16 @@
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="4">
         <f>SUM(C:C)</f>
-        <v>3697</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -574,7 +581,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -583,7 +590,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -592,7 +599,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -601,7 +608,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -612,7 +619,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -621,7 +628,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -630,7 +637,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -639,7 +646,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -648,7 +655,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -659,7 +666,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -668,7 +675,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -677,58 +684,76 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2">
+        <v>600</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C18" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C19" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C20" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C21" s="2">
         <v>411</v>
       </c>
     </row>
@@ -736,7 +761,7 @@
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cupde/videosite/docs/字数统计.xlsx
+++ b/cupde/videosite/docs/字数统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\learning-platform\cupde\videosite\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504B90AB-9AFD-414D-BA92-8FD7D1187D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDDCC04-2E65-4C98-8104-DBB09FC0B69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9168" yWindow="2088" windowWidth="13008" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>第1章绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>模块描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -566,7 +570,7 @@
       </c>
       <c r="F1" s="4">
         <f>SUM(C:C)</f>
-        <v>4365</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -702,58 +706,67 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>411</v>
       </c>
     </row>
@@ -761,7 +774,7 @@
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cupde/videosite/docs/字数统计.xlsx
+++ b/cupde/videosite/docs/字数统计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\learning-platform\cupde\videosite\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-repository\learning-platform\cupde\videosite\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDDCC04-2E65-4C98-8104-DBB09FC0B69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8089E62F-C562-46BE-8B3C-A1615D57A968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9168" yWindow="2088" windowWidth="13008" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13770" yWindow="1860" windowWidth="14685" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>第1章绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,30 @@
   </si>
   <si>
     <t>注册表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加视频类别表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加视频表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑视频表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核视频表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论视频表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,22 +564,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -570,10 +594,10 @@
       </c>
       <c r="F1" s="4">
         <f>SUM(C:C)</f>
-        <v>4464</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -584,7 +608,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -593,7 +617,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -602,7 +626,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -611,7 +635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -622,7 +646,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -631,7 +655,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -640,7 +664,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -649,7 +673,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -658,7 +682,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -669,7 +693,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -678,7 +702,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -687,7 +711,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -696,7 +720,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -705,68 +729,122 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C26" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C27" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2" t="s">
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C28" s="2">
         <v>411</v>
       </c>
     </row>
@@ -774,7 +852,7 @@
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cupde/videosite/docs/字数统计.xlsx
+++ b/cupde/videosite/docs/字数统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-repository\learning-platform\cupde\videosite\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8089E62F-C562-46BE-8B3C-A1615D57A968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6025A2BF-E72A-473C-98AA-1880E3CBF951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13770" yWindow="1860" windowWidth="14685" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>第1章绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,30 @@
   </si>
   <si>
     <t>评论视频表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频类别表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频评论表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频评论表续表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频观看历史表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -594,7 +618,7 @@
       </c>
       <c r="F1" s="4">
         <f>SUM(C:C)</f>
-        <v>5018</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -793,58 +817,112 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2">
+        <v>98</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2">
-        <v>61</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C32" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C33" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2" t="s">
+    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C34" s="2">
         <v>411</v>
       </c>
     </row>
@@ -852,7 +930,7 @@
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cupde/videosite/docs/字数统计.xlsx
+++ b/cupde/videosite/docs/字数统计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-repository\learning-platform\cupde\videosite\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\learning-platform\cupde\videosite\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6025A2BF-E72A-473C-98AA-1880E3CBF951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ABE3D5-7ED9-4534-8D99-6C3759A308F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13770" yWindow="1860" windowWidth="14685" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9168" yWindow="2088" windowWidth="13008" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>第1章绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,10 @@
   </si>
   <si>
     <t>视频观看历史表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据表关系描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,22 +592,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -618,10 +622,10 @@
       </c>
       <c r="F1" s="4">
         <f>SUM(C:C)</f>
-        <v>5512</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>5644</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -632,7 +636,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -641,7 +645,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -650,7 +654,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -659,7 +663,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -670,7 +674,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -679,7 +683,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -688,7 +692,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -697,7 +701,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -706,7 +710,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -717,7 +721,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -726,7 +730,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -735,7 +739,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -744,7 +748,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -753,7 +757,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -762,7 +766,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>30</v>
@@ -771,7 +775,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>31</v>
@@ -780,7 +784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
@@ -789,7 +793,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>33</v>
@@ -798,7 +802,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>34</v>
@@ -807,7 +811,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
@@ -816,7 +820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
@@ -825,7 +829,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>37</v>
@@ -834,7 +838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>38</v>
@@ -843,7 +847,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>39</v>
@@ -852,7 +856,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>40</v>
@@ -861,7 +865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>41</v>
@@ -870,59 +874,68 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="2" t="s">
+    <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <v>411</v>
       </c>
     </row>
@@ -930,7 +943,7 @@
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cupde/videosite/docs/字数统计.xlsx
+++ b/cupde/videosite/docs/字数统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\learning-platform\cupde\videosite\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ABE3D5-7ED9-4534-8D99-6C3759A308F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E1FD80-4C66-4014-AED2-3F5A18D6D29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9168" yWindow="2088" windowWidth="13008" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>第1章绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,50 @@
   </si>
   <si>
     <t>数据表关系描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加视频类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除视频</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -299,17 +343,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -622,7 +712,7 @@
       </c>
       <c r="F1" s="4">
         <f>SUM(C:C)</f>
-        <v>5644</v>
+        <v>8095</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -711,7 +801,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -722,7 +812,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -731,7 +821,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -740,7 +830,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -749,7 +839,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -758,7 +848,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
@@ -767,7 +857,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
@@ -776,7 +866,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
@@ -785,7 +875,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
@@ -794,7 +884,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
@@ -803,7 +893,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
@@ -812,7 +902,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -821,7 +911,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
@@ -830,7 +920,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
@@ -839,7 +929,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
@@ -848,7 +938,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
@@ -857,7 +947,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
@@ -866,7 +956,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
@@ -875,7 +965,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
@@ -920,30 +1010,130 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C45" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="5"/>
-      <c r="B35" s="2" t="s">
+    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="5"/>
+      <c r="B46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C46" s="2">
         <v>411</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A11:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cupde/videosite/docs/字数统计.xlsx
+++ b/cupde/videosite/docs/字数统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\learning-platform\cupde\videosite\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E1FD80-4C66-4014-AED2-3F5A18D6D29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E787531D-F239-45BF-BCA8-A195ABCF323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9168" yWindow="2088" windowWidth="13008" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>第1章绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,10 @@
   </si>
   <si>
     <t>删除视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索视频</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -712,7 +716,7 @@
       </c>
       <c r="F1" s="4">
         <f>SUM(C:C)</f>
-        <v>8095</v>
+        <v>8293</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1109,22 +1113,31 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="5"/>
-      <c r="B46" s="2" t="s">
+    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A47" s="5"/>
+      <c r="B47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="2">
         <v>411</v>
       </c>
     </row>
@@ -1132,7 +1145,7 @@
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A11:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cupde/videosite/docs/字数统计.xlsx
+++ b/cupde/videosite/docs/字数统计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\learning-platform\cupde\videosite\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E787531D-F239-45BF-BCA8-A195ABCF323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD0E263-C694-46C3-AB43-0BBBD90532D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9168" yWindow="2088" windowWidth="13008" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>第1章绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>搜索视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统开发环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -716,7 +720,7 @@
       </c>
       <c r="F1" s="4">
         <f>SUM(C:C)</f>
-        <v>8293</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -981,163 +985,172 @@
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C34" s="2">
-        <v>206</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2">
-        <v>214</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2">
-        <v>388</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2">
-        <v>237</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2">
-        <v>183</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="2">
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="5"/>
-      <c r="B47" s="2" t="s">
+    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <v>411</v>
       </c>
     </row>
@@ -1145,7 +1158,7 @@
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="A11:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cupde/videosite/docs/字数统计.xlsx
+++ b/cupde/videosite/docs/字数统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\learning-platform\cupde\videosite\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD0E263-C694-46C3-AB43-0BBBD90532D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1216A78-3AB3-4549-8925-115860AE4B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9168" yWindow="2088" windowWidth="13008" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>第1章绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,14 @@
   </si>
   <si>
     <t>系统开发环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册流程描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录流程描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -720,7 +728,7 @@
       </c>
       <c r="F1" s="4">
         <f>SUM(C:C)</f>
-        <v>8375</v>
+        <v>8876</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -994,163 +1002,176 @@
     </row>
     <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2">
+        <v>256</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="2">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2">
-        <v>206</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
-        <v>214</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2">
-        <v>388</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2">
-        <v>237</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2">
-        <v>183</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="2">
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="5" t="s">
+    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="5"/>
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A49" s="5"/>
+      <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="2">
         <v>411</v>
       </c>
     </row>
@@ -1158,7 +1179,7 @@
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A11:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cupde/videosite/docs/字数统计.xlsx
+++ b/cupde/videosite/docs/字数统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\learning-platform\cupde\videosite\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1216A78-3AB3-4549-8925-115860AE4B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A41EDC-6B13-4EDC-8254-70A0E250BCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9168" yWindow="2088" windowWidth="13008" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>第1章绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>用户登录流程描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户退出流程描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加视频类别流程描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加视频流程描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,16 +710,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
@@ -728,7 +740,7 @@
       </c>
       <c r="F1" s="4">
         <f>SUM(C:C)</f>
-        <v>8876</v>
+        <v>9584</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1019,159 +1031,191 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2">
-        <v>61</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2">
-        <v>24</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="2">
-        <v>206</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B37" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2">
-        <v>195</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2">
-        <v>174</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2">
-        <v>214</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2">
-        <v>388</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2">
-        <v>237</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2">
-        <v>205</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2">
-        <v>202</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C51" s="2">
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="5" t="s">
+    <row r="52" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A52" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C52" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="5"/>
-      <c r="B49" s="2" t="s">
+    <row r="53" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A53" s="5"/>
+      <c r="B53" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C53" s="2">
         <v>411</v>
       </c>
     </row>
@@ -1179,7 +1223,7 @@
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A11:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cupde/videosite/docs/字数统计.xlsx
+++ b/cupde/videosite/docs/字数统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repository\learning-platform\cupde\videosite\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A41EDC-6B13-4EDC-8254-70A0E250BCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779375E3-D9F6-4FEB-9387-27DD897F3F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9168" yWindow="2088" windowWidth="13008" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>第1章绪论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,14 @@
   </si>
   <si>
     <t>添加视频流程描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心流程描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑视频流程描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -722,7 +730,7 @@
     <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
@@ -740,7 +748,7 @@
       </c>
       <c r="F1" s="4">
         <f>SUM(C:C)</f>
-        <v>9584</v>
+        <v>10065</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1059,163 +1067,176 @@
     </row>
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="2">
+        <v>113</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="2">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="2">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C40" s="2">
-        <v>206</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2">
-        <v>214</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2">
-        <v>388</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2">
-        <v>237</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2">
-        <v>183</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="2">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="5" t="s">
+    <row r="53" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A53" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C53" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="5"/>
-      <c r="B53" s="2" t="s">
+    <row r="54" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A54" s="5"/>
+      <c r="B54" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C54" s="2">
         <v>411</v>
       </c>
     </row>
@@ -1223,7 +1244,7 @@
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A11:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
